--- a/dataset01.xlsx
+++ b/dataset01.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28308"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C4FC306-47FD-4FEC-A748-C1D5AFF05F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Stockholm University\First Semester\Statistics\Homework\Assigment-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -87,8 +91,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -414,14 +418,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G702"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -467,7 +471,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7</v>
       </c>
@@ -490,7 +494,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -513,7 +517,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -536,7 +540,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15</v>
       </c>
@@ -559,7 +563,7 @@
         <v>6295000</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>17</v>
       </c>
@@ -582,7 +586,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20</v>
       </c>
@@ -605,7 +609,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25</v>
       </c>
@@ -628,7 +632,7 @@
         <v>1340000</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>27</v>
       </c>
@@ -651,7 +655,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>28</v>
       </c>
@@ -674,7 +678,7 @@
         <v>3095000</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>29</v>
       </c>
@@ -697,7 +701,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>32</v>
       </c>
@@ -720,7 +724,7 @@
         <v>3295000</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>39</v>
       </c>
@@ -743,7 +747,7 @@
         <v>6495000</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>40</v>
       </c>
@@ -766,7 +770,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>46</v>
       </c>
@@ -789,7 +793,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>48</v>
       </c>
@@ -812,7 +816,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>54</v>
       </c>
@@ -835,7 +839,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>60</v>
       </c>
@@ -858,7 +862,7 @@
         <v>17795000</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>65</v>
       </c>
@@ -881,7 +885,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>71</v>
       </c>
@@ -904,7 +908,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>74</v>
       </c>
@@ -927,7 +931,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>75</v>
       </c>
@@ -950,7 +954,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>80</v>
       </c>
@@ -973,7 +977,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>83</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>9487494</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>89</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>3395000</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>101</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>105</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>3295000</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>109</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>6795000</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>110</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>3075000</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>113</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>115</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>130</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>1295000</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>132</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>4795000</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>135</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>137</v>
       </c>
@@ -1249,7 +1253,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>138</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>8375000</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>145</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>150</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>2795000</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>153</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>156</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>157</v>
       </c>
@@ -1387,7 +1391,7 @@
         <v>5975000</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>163</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>165</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>1875000</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>170</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>4295000</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>172</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>1795000</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>173</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>180</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>185</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>6575000</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>186</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>199</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>6495000</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>207</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>208</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>210</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>10495000</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>215</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>219</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>7995000</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>226</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>3895000</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>228</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>3095000</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>230</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>232</v>
       </c>
@@ -1801,7 +1805,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>235</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>246</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>248</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>256</v>
       </c>
@@ -1893,7 +1897,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>259</v>
       </c>
@@ -1916,7 +1920,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>262</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>1895000</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>277</v>
       </c>
@@ -1962,7 +1966,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>279</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>14995000</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>280</v>
       </c>
@@ -2008,7 +2012,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>281</v>
       </c>
@@ -2031,7 +2035,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>283</v>
       </c>
@@ -2054,7 +2058,7 @@
         <v>5495000</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>284</v>
       </c>
@@ -2077,7 +2081,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>288</v>
       </c>
@@ -2100,7 +2104,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>299</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>302</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>303</v>
       </c>
@@ -2169,7 +2173,7 @@
         <v>1695000</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>306</v>
       </c>
@@ -2192,7 +2196,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>307</v>
       </c>
@@ -2215,7 +2219,7 @@
         <v>11495000</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>312</v>
       </c>
@@ -2238,7 +2242,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>313</v>
       </c>
@@ -2261,7 +2265,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>320</v>
       </c>
@@ -2284,7 +2288,7 @@
         <v>8475000</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>322</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>325</v>
       </c>
@@ -2330,7 +2334,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>328</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>7495000</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>330</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>332</v>
       </c>
@@ -2399,7 +2403,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>334</v>
       </c>
@@ -2422,7 +2426,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>335</v>
       </c>
@@ -2445,7 +2449,7 @@
         <v>7995000</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>336</v>
       </c>
@@ -2468,7 +2472,7 @@
         <v>2795000</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>338</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>340</v>
       </c>
@@ -2514,7 +2518,7 @@
         <v>4190000</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>346</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>348</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>353</v>
       </c>
@@ -2583,7 +2587,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>355</v>
       </c>
@@ -2606,7 +2610,7 @@
         <v>4695000</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>357</v>
       </c>
@@ -2629,7 +2633,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>360</v>
       </c>
@@ -2652,7 +2656,7 @@
         <v>3695000</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>361</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>1890000</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>362</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>379</v>
       </c>
@@ -2721,7 +2725,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>383</v>
       </c>
@@ -2744,7 +2748,7 @@
         <v>1695000</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>386</v>
       </c>
@@ -2767,7 +2771,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>387</v>
       </c>
@@ -2790,7 +2794,7 @@
         <v>5195000</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>388</v>
       </c>
@@ -2813,7 +2817,7 @@
         <v>6375000</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>389</v>
       </c>
@@ -2836,7 +2840,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>397</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>400</v>
       </c>
@@ -2882,7 +2886,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>402</v>
       </c>
@@ -2905,7 +2909,7 @@
         <v>6995000</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>405</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>5495000</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>406</v>
       </c>
@@ -2951,7 +2955,7 @@
         <v>1545000</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>411</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>418</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>423</v>
       </c>
@@ -3020,7 +3024,7 @@
         <v>4595000</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>425</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>5795000</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>431</v>
       </c>
@@ -3066,7 +3070,7 @@
         <v>3595000</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>434</v>
       </c>
@@ -3089,7 +3093,7 @@
         <v>7495000</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>437</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>2895000</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>440</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>2795000</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>441</v>
       </c>
@@ -3158,7 +3162,7 @@
         <v>7995000</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>443</v>
       </c>
@@ -3181,7 +3185,7 @@
         <v>4975000</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>447</v>
       </c>
@@ -3204,7 +3208,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>449</v>
       </c>
@@ -3227,7 +3231,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>453</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>463</v>
       </c>
@@ -3273,7 +3277,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>466</v>
       </c>
@@ -3296,7 +3300,7 @@
         <v>2970205</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>469</v>
       </c>
@@ -3319,7 +3323,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>470</v>
       </c>
@@ -3342,7 +3346,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>471</v>
       </c>
@@ -3365,7 +3369,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>475</v>
       </c>
@@ -3388,7 +3392,7 @@
         <v>1595000</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>478</v>
       </c>
@@ -3411,7 +3415,7 @@
         <v>1795000</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>484</v>
       </c>
@@ -3434,7 +3438,7 @@
         <v>4595000</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>485</v>
       </c>
@@ -3457,7 +3461,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>487</v>
       </c>
@@ -3480,7 +3484,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>494</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>6595000</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>496</v>
       </c>
@@ -3526,7 +3530,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>498</v>
       </c>
@@ -3549,7 +3553,7 @@
         <v>6995000</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>502</v>
       </c>
@@ -3572,7 +3576,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>503</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="139" spans="1:7">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>507</v>
       </c>
@@ -3618,7 +3622,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="140" spans="1:7">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>511</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="141" spans="1:7">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>513</v>
       </c>
@@ -3664,7 +3668,7 @@
         <v>1495000</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>518</v>
       </c>
@@ -3687,7 +3691,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>519</v>
       </c>
@@ -3710,7 +3714,7 @@
         <v>8490000</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>520</v>
       </c>
@@ -3733,7 +3737,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>521</v>
       </c>
@@ -3756,7 +3760,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>522</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>3295000</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>523</v>
       </c>
@@ -3802,7 +3806,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>530</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>532</v>
       </c>
@@ -3848,7 +3852,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>545</v>
       </c>
@@ -3871,7 +3875,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>548</v>
       </c>
@@ -3894,7 +3898,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>556</v>
       </c>
@@ -3917,7 +3921,7 @@
         <v>3795000</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>560</v>
       </c>
@@ -3940,7 +3944,7 @@
         <v>7105144</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>561</v>
       </c>
@@ -3963,7 +3967,7 @@
         <v>6295000</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>562</v>
       </c>
@@ -3986,7 +3990,7 @@
         <v>5495000</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>567</v>
       </c>
@@ -4009,7 +4013,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>585</v>
       </c>
@@ -4032,7 +4036,7 @@
         <v>4195000</v>
       </c>
     </row>
-    <row r="158" spans="1:7">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>590</v>
       </c>
@@ -4055,7 +4059,7 @@
         <v>5195000</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>593</v>
       </c>
@@ -4078,7 +4082,7 @@
         <v>8495000</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>597</v>
       </c>
@@ -4101,7 +4105,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>600</v>
       </c>
@@ -4124,7 +4128,7 @@
         <v>2795000</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>601</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>7995000</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>603</v>
       </c>
@@ -4170,7 +4174,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>608</v>
       </c>
@@ -4193,7 +4197,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>609</v>
       </c>
@@ -4216,7 +4220,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>619</v>
       </c>
@@ -4239,7 +4243,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>626</v>
       </c>
@@ -4262,7 +4266,7 @@
         <v>10995000</v>
       </c>
     </row>
-    <row r="168" spans="1:7">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>629</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="169" spans="1:7">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>633</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="170" spans="1:7">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>634</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>3490000</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>636</v>
       </c>
@@ -4354,7 +4358,7 @@
         <v>2985000</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>641</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>643</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>7295000</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>651</v>
       </c>
@@ -4423,7 +4427,7 @@
         <v>8995000</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>657</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>661</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>664</v>
       </c>
@@ -4492,7 +4496,7 @@
         <v>3395000</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>665</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="179" spans="1:7">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>671</v>
       </c>
@@ -4538,7 +4542,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>673</v>
       </c>
@@ -4561,7 +4565,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>674</v>
       </c>
@@ -4584,7 +4588,7 @@
         <v>6195000</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>675</v>
       </c>
@@ -4607,7 +4611,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>676</v>
       </c>
@@ -4630,7 +4634,7 @@
         <v>3890000</v>
       </c>
     </row>
-    <row r="184" spans="1:7">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>677</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="185" spans="1:7">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>683</v>
       </c>
@@ -4676,7 +4680,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>684</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="187" spans="1:7">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>688</v>
       </c>
@@ -4722,7 +4726,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>689</v>
       </c>
@@ -4745,7 +4749,7 @@
         <v>2158178</v>
       </c>
     </row>
-    <row r="189" spans="1:7">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>690</v>
       </c>
@@ -4768,7 +4772,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="190" spans="1:7">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>692</v>
       </c>
@@ -4791,7 +4795,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="191" spans="1:7">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>693</v>
       </c>
@@ -4814,7 +4818,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="192" spans="1:7">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>701</v>
       </c>
@@ -4837,7 +4841,7 @@
         <v>4795000</v>
       </c>
     </row>
-    <row r="193" spans="1:7">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>703</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>1425000</v>
       </c>
     </row>
-    <row r="194" spans="1:7">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>706</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="195" spans="1:7">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>712</v>
       </c>
@@ -4906,7 +4910,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="196" spans="1:7">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>715</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>3595000</v>
       </c>
     </row>
-    <row r="197" spans="1:7">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>727</v>
       </c>
@@ -4952,7 +4956,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="198" spans="1:7">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>734</v>
       </c>
@@ -4975,7 +4979,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="199" spans="1:7">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>740</v>
       </c>
@@ -4998,7 +5002,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="200" spans="1:7">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>743</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>11900000</v>
       </c>
     </row>
-    <row r="201" spans="1:7">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>753</v>
       </c>
@@ -5044,7 +5048,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="202" spans="1:7">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>754</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="203" spans="1:7">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>757</v>
       </c>
@@ -5090,7 +5094,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="204" spans="1:7">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>763</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>1245000</v>
       </c>
     </row>
-    <row r="205" spans="1:7">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>765</v>
       </c>
@@ -5136,7 +5140,7 @@
         <v>2895000</v>
       </c>
     </row>
-    <row r="206" spans="1:7">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>767</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="207" spans="1:7">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>768</v>
       </c>
@@ -5182,7 +5186,7 @@
         <v>4295000</v>
       </c>
     </row>
-    <row r="208" spans="1:7">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>770</v>
       </c>
@@ -5205,7 +5209,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>772</v>
       </c>
@@ -5228,7 +5232,7 @@
         <v>10950000</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>773</v>
       </c>
@@ -5251,7 +5255,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>784</v>
       </c>
@@ -5274,7 +5278,7 @@
         <v>12900000</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>788</v>
       </c>
@@ -5297,7 +5301,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>791</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>792</v>
       </c>
@@ -5343,7 +5347,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>796</v>
       </c>
@@ -5366,7 +5370,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>801</v>
       </c>
@@ -5389,7 +5393,7 @@
         <v>1895000</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>803</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>3775000</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>806</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>1595000</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>807</v>
       </c>
@@ -5458,7 +5462,7 @@
         <v>4249000</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>808</v>
       </c>
@@ -5481,7 +5485,7 @@
         <v>8695000</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>809</v>
       </c>
@@ -5504,7 +5508,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>810</v>
       </c>
@@ -5527,7 +5531,7 @@
         <v>5895000</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>816</v>
       </c>
@@ -5550,7 +5554,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>833</v>
       </c>
@@ -5573,7 +5577,7 @@
         <v>5695000</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>834</v>
       </c>
@@ -5596,7 +5600,7 @@
         <v>1890000</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>840</v>
       </c>
@@ -5619,7 +5623,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>843</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>6295000</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>846</v>
       </c>
@@ -5665,7 +5669,7 @@
         <v>1225000</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>849</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>853</v>
       </c>
@@ -5711,7 +5715,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>857</v>
       </c>
@@ -5734,7 +5738,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>862</v>
       </c>
@@ -5757,7 +5761,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>867</v>
       </c>
@@ -5780,7 +5784,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>875</v>
       </c>
@@ -5803,7 +5807,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>876</v>
       </c>
@@ -5826,7 +5830,7 @@
         <v>1675000</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>877</v>
       </c>
@@ -5849,7 +5853,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>884</v>
       </c>
@@ -5872,7 +5876,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>886</v>
       </c>
@@ -5895,7 +5899,7 @@
         <v>1495000</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>890</v>
       </c>
@@ -5918,7 +5922,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>892</v>
       </c>
@@ -5941,7 +5945,7 @@
         <v>4745000</v>
       </c>
     </row>
-    <row r="241" spans="1:7">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>894</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>3795000</v>
       </c>
     </row>
-    <row r="242" spans="1:7">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>895</v>
       </c>
@@ -5987,7 +5991,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="243" spans="1:7">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>896</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="244" spans="1:7">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>899</v>
       </c>
@@ -6033,7 +6037,7 @@
         <v>4295000</v>
       </c>
     </row>
-    <row r="245" spans="1:7">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>903</v>
       </c>
@@ -6056,7 +6060,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="246" spans="1:7">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>904</v>
       </c>
@@ -6079,7 +6083,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="247" spans="1:7">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>906</v>
       </c>
@@ -6102,7 +6106,7 @@
         <v>1195000</v>
       </c>
     </row>
-    <row r="248" spans="1:7">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>909</v>
       </c>
@@ -6125,7 +6129,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="249" spans="1:7">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>913</v>
       </c>
@@ -6148,7 +6152,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="250" spans="1:7">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>915</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="251" spans="1:7">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>917</v>
       </c>
@@ -6194,7 +6198,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="252" spans="1:7">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>924</v>
       </c>
@@ -6217,7 +6221,7 @@
         <v>4775000</v>
       </c>
     </row>
-    <row r="253" spans="1:7">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>927</v>
       </c>
@@ -6240,7 +6244,7 @@
         <v>1584721</v>
       </c>
     </row>
-    <row r="254" spans="1:7">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>932</v>
       </c>
@@ -6263,7 +6267,7 @@
         <v>2795000</v>
       </c>
     </row>
-    <row r="255" spans="1:7">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>946</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="256" spans="1:7">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>947</v>
       </c>
@@ -6309,7 +6313,7 @@
         <v>2095000</v>
       </c>
     </row>
-    <row r="257" spans="1:7">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>950</v>
       </c>
@@ -6332,7 +6336,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="258" spans="1:7">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>957</v>
       </c>
@@ -6355,7 +6359,7 @@
         <v>795000</v>
       </c>
     </row>
-    <row r="259" spans="1:7">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>962</v>
       </c>
@@ -6378,7 +6382,7 @@
         <v>1595000</v>
       </c>
     </row>
-    <row r="260" spans="1:7">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>963</v>
       </c>
@@ -6401,7 +6405,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="261" spans="1:7">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>966</v>
       </c>
@@ -6424,7 +6428,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="262" spans="1:7">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>970</v>
       </c>
@@ -6447,7 +6451,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="263" spans="1:7">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>971</v>
       </c>
@@ -6470,7 +6474,7 @@
         <v>5295000</v>
       </c>
     </row>
-    <row r="264" spans="1:7">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>972</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>1395000</v>
       </c>
     </row>
-    <row r="265" spans="1:7">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>976</v>
       </c>
@@ -6516,7 +6520,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="266" spans="1:7">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>978</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="267" spans="1:7">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>984</v>
       </c>
@@ -6562,7 +6566,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="268" spans="1:7">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>987</v>
       </c>
@@ -6585,7 +6589,7 @@
         <v>2895000</v>
       </c>
     </row>
-    <row r="269" spans="1:7">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>988</v>
       </c>
@@ -6608,7 +6612,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="270" spans="1:7">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>993</v>
       </c>
@@ -6631,7 +6635,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="271" spans="1:7">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>994</v>
       </c>
@@ -6654,7 +6658,7 @@
         <v>11495000</v>
       </c>
     </row>
-    <row r="272" spans="1:7">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1000</v>
       </c>
@@ -6677,7 +6681,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="273" spans="1:7">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1001</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="274" spans="1:7">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1002</v>
       </c>
@@ -6723,7 +6727,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="275" spans="1:7">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1013</v>
       </c>
@@ -6746,7 +6750,7 @@
         <v>1795000</v>
       </c>
     </row>
-    <row r="276" spans="1:7">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1018</v>
       </c>
@@ -6769,7 +6773,7 @@
         <v>2795000</v>
       </c>
     </row>
-    <row r="277" spans="1:7">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1019</v>
       </c>
@@ -6792,7 +6796,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="278" spans="1:7">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1021</v>
       </c>
@@ -6815,7 +6819,7 @@
         <v>6495000</v>
       </c>
     </row>
-    <row r="279" spans="1:7">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1024</v>
       </c>
@@ -6838,7 +6842,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="280" spans="1:7">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1039</v>
       </c>
@@ -6861,7 +6865,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="281" spans="1:7">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1040</v>
       </c>
@@ -6884,7 +6888,7 @@
         <v>1195000</v>
       </c>
     </row>
-    <row r="282" spans="1:7">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1041</v>
       </c>
@@ -6907,7 +6911,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="283" spans="1:7">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1042</v>
       </c>
@@ -6930,7 +6934,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="284" spans="1:7">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1047</v>
       </c>
@@ -6953,7 +6957,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="285" spans="1:7">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1049</v>
       </c>
@@ -6976,7 +6980,7 @@
         <v>2890000</v>
       </c>
     </row>
-    <row r="286" spans="1:7">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1050</v>
       </c>
@@ -6999,7 +7003,7 @@
         <v>12750000</v>
       </c>
     </row>
-    <row r="287" spans="1:7">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1061</v>
       </c>
@@ -7022,7 +7026,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="288" spans="1:7">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1065</v>
       </c>
@@ -7045,7 +7049,7 @@
         <v>7395000</v>
       </c>
     </row>
-    <row r="289" spans="1:7">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1067</v>
       </c>
@@ -7068,7 +7072,7 @@
         <v>3795000</v>
       </c>
     </row>
-    <row r="290" spans="1:7">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1070</v>
       </c>
@@ -7091,7 +7095,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="291" spans="1:7">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1071</v>
       </c>
@@ -7114,7 +7118,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="292" spans="1:7">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1082</v>
       </c>
@@ -7137,7 +7141,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="293" spans="1:7">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1087</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>1675000</v>
       </c>
     </row>
-    <row r="294" spans="1:7">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1091</v>
       </c>
@@ -7183,7 +7187,7 @@
         <v>4785000</v>
       </c>
     </row>
-    <row r="295" spans="1:7">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1097</v>
       </c>
@@ -7206,7 +7210,7 @@
         <v>2790000</v>
       </c>
     </row>
-    <row r="296" spans="1:7">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1100</v>
       </c>
@@ -7229,7 +7233,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="297" spans="1:7">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1102</v>
       </c>
@@ -7252,7 +7256,7 @@
         <v>1395000</v>
       </c>
     </row>
-    <row r="298" spans="1:7">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1103</v>
       </c>
@@ -7275,7 +7279,7 @@
         <v>5395000</v>
       </c>
     </row>
-    <row r="299" spans="1:7">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1105</v>
       </c>
@@ -7298,7 +7302,7 @@
         <v>3745000</v>
       </c>
     </row>
-    <row r="300" spans="1:7">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1107</v>
       </c>
@@ -7321,7 +7325,7 @@
         <v>5495000</v>
       </c>
     </row>
-    <row r="301" spans="1:7">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1110</v>
       </c>
@@ -7344,7 +7348,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="302" spans="1:7">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1112</v>
       </c>
@@ -7367,7 +7371,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="303" spans="1:7">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1114</v>
       </c>
@@ -7390,7 +7394,7 @@
         <v>5295000</v>
       </c>
     </row>
-    <row r="304" spans="1:7">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1116</v>
       </c>
@@ -7413,7 +7417,7 @@
         <v>4795000</v>
       </c>
     </row>
-    <row r="305" spans="1:7">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1117</v>
       </c>
@@ -7436,7 +7440,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="306" spans="1:7">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1120</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>1395000</v>
       </c>
     </row>
-    <row r="307" spans="1:7">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1123</v>
       </c>
@@ -7482,7 +7486,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="308" spans="1:7">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1126</v>
       </c>
@@ -7505,7 +7509,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="309" spans="1:7">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1129</v>
       </c>
@@ -7528,7 +7532,7 @@
         <v>2795000</v>
       </c>
     </row>
-    <row r="310" spans="1:7">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1130</v>
       </c>
@@ -7551,7 +7555,7 @@
         <v>4295000</v>
       </c>
     </row>
-    <row r="311" spans="1:7">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1132</v>
       </c>
@@ -7574,7 +7578,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="312" spans="1:7">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1137</v>
       </c>
@@ -7597,7 +7601,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="313" spans="1:7">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1139</v>
       </c>
@@ -7620,7 +7624,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="314" spans="1:7">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1149</v>
       </c>
@@ -7643,7 +7647,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="315" spans="1:7">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1152</v>
       </c>
@@ -7666,7 +7670,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="316" spans="1:7">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1155</v>
       </c>
@@ -7689,7 +7693,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="317" spans="1:7">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1160</v>
       </c>
@@ -7712,7 +7716,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="318" spans="1:7">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1167</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="319" spans="1:7">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1168</v>
       </c>
@@ -7758,7 +7762,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="320" spans="1:7">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1169</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>1245000</v>
       </c>
     </row>
-    <row r="321" spans="1:7">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1172</v>
       </c>
@@ -7804,7 +7808,7 @@
         <v>3695000</v>
       </c>
     </row>
-    <row r="322" spans="1:7">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1178</v>
       </c>
@@ -7827,7 +7831,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="323" spans="1:7">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1182</v>
       </c>
@@ -7850,7 +7854,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="324" spans="1:7">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1183</v>
       </c>
@@ -7873,7 +7877,7 @@
         <v>9895000</v>
       </c>
     </row>
-    <row r="325" spans="1:7">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1184</v>
       </c>
@@ -7896,7 +7900,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="326" spans="1:7">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1185</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="327" spans="1:7">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1186</v>
       </c>
@@ -7942,7 +7946,7 @@
         <v>4695000</v>
       </c>
     </row>
-    <row r="328" spans="1:7">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1189</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="329" spans="1:7">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1194</v>
       </c>
@@ -7988,7 +7992,7 @@
         <v>9695000</v>
       </c>
     </row>
-    <row r="330" spans="1:7">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1197</v>
       </c>
@@ -8011,7 +8015,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="331" spans="1:7">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1199</v>
       </c>
@@ -8034,7 +8038,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="332" spans="1:7">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1202</v>
       </c>
@@ -8057,7 +8061,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="333" spans="1:7">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1219</v>
       </c>
@@ -8080,7 +8084,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="334" spans="1:7">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1230</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="335" spans="1:7">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1236</v>
       </c>
@@ -8126,7 +8130,7 @@
         <v>3795000</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1237</v>
       </c>
@@ -8149,7 +8153,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1239</v>
       </c>
@@ -8172,7 +8176,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="338" spans="1:7">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1241</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>5495000</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1246</v>
       </c>
@@ -8218,7 +8222,7 @@
         <v>4295000</v>
       </c>
     </row>
-    <row r="340" spans="1:7">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1249</v>
       </c>
@@ -8241,7 +8245,7 @@
         <v>7995000</v>
       </c>
     </row>
-    <row r="341" spans="1:7">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1255</v>
       </c>
@@ -8264,7 +8268,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="342" spans="1:7">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1257</v>
       </c>
@@ -8287,7 +8291,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="343" spans="1:7">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1258</v>
       </c>
@@ -8310,7 +8314,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="344" spans="1:7">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1260</v>
       </c>
@@ -8333,7 +8337,7 @@
         <v>3295000</v>
       </c>
     </row>
-    <row r="345" spans="1:7">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1262</v>
       </c>
@@ -8356,7 +8360,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="346" spans="1:7">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1267</v>
       </c>
@@ -8379,7 +8383,7 @@
         <v>4390000</v>
       </c>
     </row>
-    <row r="347" spans="1:7">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1270</v>
       </c>
@@ -8402,7 +8406,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="348" spans="1:7">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1271</v>
       </c>
@@ -8425,7 +8429,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="349" spans="1:7">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1275</v>
       </c>
@@ -8448,7 +8452,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="350" spans="1:7">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1279</v>
       </c>
@@ -8471,7 +8475,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="351" spans="1:7">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1280</v>
       </c>
@@ -8494,7 +8498,7 @@
         <v>3695000</v>
       </c>
     </row>
-    <row r="352" spans="1:7">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1281</v>
       </c>
@@ -8517,7 +8521,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="353" spans="1:7">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1284</v>
       </c>
@@ -8540,7 +8544,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="354" spans="1:7">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1294</v>
       </c>
@@ -8563,7 +8567,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="355" spans="1:7">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1300</v>
       </c>
@@ -8586,7 +8590,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="356" spans="1:7">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1307</v>
       </c>
@@ -8609,7 +8613,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="357" spans="1:7">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1315</v>
       </c>
@@ -8632,7 +8636,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="358" spans="1:7">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1316</v>
       </c>
@@ -8655,7 +8659,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="359" spans="1:7">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1324</v>
       </c>
@@ -8678,7 +8682,7 @@
         <v>3595000</v>
       </c>
     </row>
-    <row r="360" spans="1:7">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1326</v>
       </c>
@@ -8701,7 +8705,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="361" spans="1:7">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1335</v>
       </c>
@@ -8724,7 +8728,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="362" spans="1:7">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1338</v>
       </c>
@@ -8747,7 +8751,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="363" spans="1:7">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1342</v>
       </c>
@@ -8770,7 +8774,7 @@
         <v>2975000</v>
       </c>
     </row>
-    <row r="364" spans="1:7">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1343</v>
       </c>
@@ -8793,7 +8797,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="365" spans="1:7">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1344</v>
       </c>
@@ -8816,7 +8820,7 @@
         <v>2875000</v>
       </c>
     </row>
-    <row r="366" spans="1:7">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1345</v>
       </c>
@@ -8839,7 +8843,7 @@
         <v>1895000</v>
       </c>
     </row>
-    <row r="367" spans="1:7">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1346</v>
       </c>
@@ -8862,7 +8866,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="368" spans="1:7">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1348</v>
       </c>
@@ -8885,7 +8889,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="369" spans="1:7">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1349</v>
       </c>
@@ -8908,7 +8912,7 @@
         <v>11895000</v>
       </c>
     </row>
-    <row r="370" spans="1:7">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1350</v>
       </c>
@@ -8931,7 +8935,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="371" spans="1:7">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1351</v>
       </c>
@@ -8954,7 +8958,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="372" spans="1:7">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1352</v>
       </c>
@@ -8977,7 +8981,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="373" spans="1:7">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1354</v>
       </c>
@@ -9000,7 +9004,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="374" spans="1:7">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1358</v>
       </c>
@@ -9023,7 +9027,7 @@
         <v>8495000</v>
       </c>
     </row>
-    <row r="375" spans="1:7">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1363</v>
       </c>
@@ -9046,7 +9050,7 @@
         <v>7495000</v>
       </c>
     </row>
-    <row r="376" spans="1:7">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1366</v>
       </c>
@@ -9069,7 +9073,7 @@
         <v>5695000</v>
       </c>
     </row>
-    <row r="377" spans="1:7">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1370</v>
       </c>
@@ -9092,7 +9096,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="378" spans="1:7">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1372</v>
       </c>
@@ -9115,7 +9119,7 @@
         <v>6375000</v>
       </c>
     </row>
-    <row r="379" spans="1:7">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1374</v>
       </c>
@@ -9138,7 +9142,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="380" spans="1:7">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1375</v>
       </c>
@@ -9161,7 +9165,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="381" spans="1:7">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1376</v>
       </c>
@@ -9184,7 +9188,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="382" spans="1:7">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1377</v>
       </c>
@@ -9207,7 +9211,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="383" spans="1:7">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1378</v>
       </c>
@@ -9230,7 +9234,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="384" spans="1:7">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1383</v>
       </c>
@@ -9253,7 +9257,7 @@
         <v>4695000</v>
       </c>
     </row>
-    <row r="385" spans="1:7">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1384</v>
       </c>
@@ -9276,7 +9280,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="386" spans="1:7">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1388</v>
       </c>
@@ -9299,7 +9303,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="387" spans="1:7">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1390</v>
       </c>
@@ -9322,7 +9326,7 @@
         <v>2890000</v>
       </c>
     </row>
-    <row r="388" spans="1:7">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1395</v>
       </c>
@@ -9345,7 +9349,7 @@
         <v>8490000</v>
       </c>
     </row>
-    <row r="389" spans="1:7">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1398</v>
       </c>
@@ -9368,7 +9372,7 @@
         <v>4264247</v>
       </c>
     </row>
-    <row r="390" spans="1:7">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1399</v>
       </c>
@@ -9391,7 +9395,7 @@
         <v>2895000</v>
       </c>
     </row>
-    <row r="391" spans="1:7">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1401</v>
       </c>
@@ -9414,7 +9418,7 @@
         <v>5975000</v>
       </c>
     </row>
-    <row r="392" spans="1:7">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1403</v>
       </c>
@@ -9437,7 +9441,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="393" spans="1:7">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1408</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="394" spans="1:7">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1409</v>
       </c>
@@ -9483,7 +9487,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="395" spans="1:7">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1410</v>
       </c>
@@ -9506,7 +9510,7 @@
         <v>12975000</v>
       </c>
     </row>
-    <row r="396" spans="1:7">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1412</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="397" spans="1:7">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1413</v>
       </c>
@@ -9552,7 +9556,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="398" spans="1:7">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1418</v>
       </c>
@@ -9575,7 +9579,7 @@
         <v>2990000</v>
       </c>
     </row>
-    <row r="399" spans="1:7">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1421</v>
       </c>
@@ -9598,7 +9602,7 @@
         <v>17950000</v>
       </c>
     </row>
-    <row r="400" spans="1:7">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1423</v>
       </c>
@@ -9621,7 +9625,7 @@
         <v>5495000</v>
       </c>
     </row>
-    <row r="401" spans="1:7">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1427</v>
       </c>
@@ -9644,7 +9648,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="402" spans="1:7">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1430</v>
       </c>
@@ -9667,7 +9671,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="403" spans="1:7">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1433</v>
       </c>
@@ -9690,7 +9694,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="404" spans="1:7">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1435</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="405" spans="1:7">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1436</v>
       </c>
@@ -9736,7 +9740,7 @@
         <v>4295000</v>
       </c>
     </row>
-    <row r="406" spans="1:7">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1437</v>
       </c>
@@ -9759,7 +9763,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="407" spans="1:7">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1438</v>
       </c>
@@ -9782,7 +9786,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="408" spans="1:7">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1439</v>
       </c>
@@ -9805,7 +9809,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="409" spans="1:7">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1443</v>
       </c>
@@ -9828,7 +9832,7 @@
         <v>3122976</v>
       </c>
     </row>
-    <row r="410" spans="1:7">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1444</v>
       </c>
@@ -9851,7 +9855,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="411" spans="1:7">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1450</v>
       </c>
@@ -9874,7 +9878,7 @@
         <v>1920000</v>
       </c>
     </row>
-    <row r="412" spans="1:7">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1451</v>
       </c>
@@ -9897,7 +9901,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="413" spans="1:7">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1452</v>
       </c>
@@ -9920,7 +9924,7 @@
         <v>4895000</v>
       </c>
     </row>
-    <row r="414" spans="1:7">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1454</v>
       </c>
@@ -9943,7 +9947,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="415" spans="1:7">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1456</v>
       </c>
@@ -9966,7 +9970,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="416" spans="1:7">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1472</v>
       </c>
@@ -9989,7 +9993,7 @@
         <v>1795000</v>
       </c>
     </row>
-    <row r="417" spans="1:7">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>1474</v>
       </c>
@@ -10012,7 +10016,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="418" spans="1:7">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>1478</v>
       </c>
@@ -10035,7 +10039,7 @@
         <v>1795000</v>
       </c>
     </row>
-    <row r="419" spans="1:7">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>1480</v>
       </c>
@@ -10058,7 +10062,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="420" spans="1:7">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>1482</v>
       </c>
@@ -10081,7 +10085,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="421" spans="1:7">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>1484</v>
       </c>
@@ -10104,7 +10108,7 @@
         <v>1095000</v>
       </c>
     </row>
-    <row r="422" spans="1:7">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>1485</v>
       </c>
@@ -10127,7 +10131,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="423" spans="1:7">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>1490</v>
       </c>
@@ -10150,7 +10154,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="424" spans="1:7">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>1498</v>
       </c>
@@ -10173,7 +10177,7 @@
         <v>4795000</v>
       </c>
     </row>
-    <row r="425" spans="1:7">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>1503</v>
       </c>
@@ -10196,7 +10200,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="426" spans="1:7">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>1504</v>
       </c>
@@ -10219,7 +10223,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="427" spans="1:7">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>1506</v>
       </c>
@@ -10242,7 +10246,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="428" spans="1:7">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>1513</v>
       </c>
@@ -10265,7 +10269,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="429" spans="1:7">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>1519</v>
       </c>
@@ -10288,7 +10292,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="430" spans="1:7">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>1524</v>
       </c>
@@ -10311,7 +10315,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="431" spans="1:7">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>1526</v>
       </c>
@@ -10334,7 +10338,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="432" spans="1:7">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>1529</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>5895000</v>
       </c>
     </row>
-    <row r="433" spans="1:7">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>1530</v>
       </c>
@@ -10380,7 +10384,7 @@
         <v>7595000</v>
       </c>
     </row>
-    <row r="434" spans="1:7">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>1531</v>
       </c>
@@ -10403,7 +10407,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="435" spans="1:7">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>1532</v>
       </c>
@@ -10426,7 +10430,7 @@
         <v>3795000</v>
       </c>
     </row>
-    <row r="436" spans="1:7">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>1534</v>
       </c>
@@ -10449,7 +10453,7 @@
         <v>2990000</v>
       </c>
     </row>
-    <row r="437" spans="1:7">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>1536</v>
       </c>
@@ -10472,7 +10476,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="438" spans="1:7">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>1537</v>
       </c>
@@ -10495,7 +10499,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="439" spans="1:7">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>1545</v>
       </c>
@@ -10518,7 +10522,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="440" spans="1:7">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>1550</v>
       </c>
@@ -10541,7 +10545,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="441" spans="1:7">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>1552</v>
       </c>
@@ -10564,7 +10568,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="442" spans="1:7">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>1553</v>
       </c>
@@ -10587,7 +10591,7 @@
         <v>5812514</v>
       </c>
     </row>
-    <row r="443" spans="1:7">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>1555</v>
       </c>
@@ -10610,7 +10614,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="444" spans="1:7">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>1558</v>
       </c>
@@ -10633,7 +10637,7 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="445" spans="1:7">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>1560</v>
       </c>
@@ -10656,7 +10660,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="446" spans="1:7">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>1562</v>
       </c>
@@ -10679,7 +10683,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="447" spans="1:7">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>1564</v>
       </c>
@@ -10702,7 +10706,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="448" spans="1:7">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>1568</v>
       </c>
@@ -10725,7 +10729,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="449" spans="1:7">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>1572</v>
       </c>
@@ -10748,7 +10752,7 @@
         <v>13400000</v>
       </c>
     </row>
-    <row r="450" spans="1:7">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>1577</v>
       </c>
@@ -10771,7 +10775,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="451" spans="1:7">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>1578</v>
       </c>
@@ -10794,7 +10798,7 @@
         <v>4795000</v>
       </c>
     </row>
-    <row r="452" spans="1:7">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>1580</v>
       </c>
@@ -10817,7 +10821,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="453" spans="1:7">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>1582</v>
       </c>
@@ -10840,7 +10844,7 @@
         <v>10995000</v>
       </c>
     </row>
-    <row r="454" spans="1:7">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>1584</v>
       </c>
@@ -10863,7 +10867,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="455" spans="1:7">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>1586</v>
       </c>
@@ -10886,7 +10890,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="456" spans="1:7">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>1593</v>
       </c>
@@ -10909,7 +10913,7 @@
         <v>1895000</v>
       </c>
     </row>
-    <row r="457" spans="1:7">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>1596</v>
       </c>
@@ -10932,7 +10936,7 @@
         <v>1795000</v>
       </c>
     </row>
-    <row r="458" spans="1:7">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>1597</v>
       </c>
@@ -10955,7 +10959,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="459" spans="1:7">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>1598</v>
       </c>
@@ -10978,7 +10982,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="460" spans="1:7">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>1599</v>
       </c>
@@ -11001,7 +11005,7 @@
         <v>3695000</v>
       </c>
     </row>
-    <row r="461" spans="1:7">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>1602</v>
       </c>
@@ -11024,7 +11028,7 @@
         <v>1895000</v>
       </c>
     </row>
-    <row r="462" spans="1:7">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>1603</v>
       </c>
@@ -11047,7 +11051,7 @@
         <v>2775000</v>
       </c>
     </row>
-    <row r="463" spans="1:7">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>1605</v>
       </c>
@@ -11070,7 +11074,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="464" spans="1:7">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>1607</v>
       </c>
@@ -11093,7 +11097,7 @@
         <v>6995000</v>
       </c>
     </row>
-    <row r="465" spans="1:7">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>1608</v>
       </c>
@@ -11116,7 +11120,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="466" spans="1:7">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>1611</v>
       </c>
@@ -11139,7 +11143,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="467" spans="1:7">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>1613</v>
       </c>
@@ -11162,7 +11166,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="468" spans="1:7">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>1614</v>
       </c>
@@ -11185,7 +11189,7 @@
         <v>4090000</v>
       </c>
     </row>
-    <row r="469" spans="1:7">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>1615</v>
       </c>
@@ -11208,7 +11212,7 @@
         <v>3020000</v>
       </c>
     </row>
-    <row r="470" spans="1:7">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>1618</v>
       </c>
@@ -11231,7 +11235,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="471" spans="1:7">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>1622</v>
       </c>
@@ -11254,7 +11258,7 @@
         <v>9595000</v>
       </c>
     </row>
-    <row r="472" spans="1:7">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>1638</v>
       </c>
@@ -11277,7 +11281,7 @@
         <v>1295000</v>
       </c>
     </row>
-    <row r="473" spans="1:7">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>1642</v>
       </c>
@@ -11300,7 +11304,7 @@
         <v>6095000</v>
       </c>
     </row>
-    <row r="474" spans="1:7">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>1644</v>
       </c>
@@ -11323,7 +11327,7 @@
         <v>3895000</v>
       </c>
     </row>
-    <row r="475" spans="1:7">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>1650</v>
       </c>
@@ -11346,7 +11350,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="476" spans="1:7">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>1663</v>
       </c>
@@ -11369,7 +11373,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="477" spans="1:7">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>1665</v>
       </c>
@@ -11392,7 +11396,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="478" spans="1:7">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>1673</v>
       </c>
@@ -11415,7 +11419,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="479" spans="1:7">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>1677</v>
       </c>
@@ -11438,7 +11442,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="480" spans="1:7">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>1680</v>
       </c>
@@ -11461,7 +11465,7 @@
         <v>10150000</v>
       </c>
     </row>
-    <row r="481" spans="1:7">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>1686</v>
       </c>
@@ -11484,7 +11488,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="482" spans="1:7">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>1689</v>
       </c>
@@ -11507,7 +11511,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="483" spans="1:7">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>1694</v>
       </c>
@@ -11530,7 +11534,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="484" spans="1:7">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>1695</v>
       </c>
@@ -11553,7 +11557,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="485" spans="1:7">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>1698</v>
       </c>
@@ -11576,7 +11580,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="486" spans="1:7">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>1699</v>
       </c>
@@ -11599,7 +11603,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="487" spans="1:7">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>1700</v>
       </c>
@@ -11622,7 +11626,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="488" spans="1:7">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>1701</v>
       </c>
@@ -11645,7 +11649,7 @@
         <v>1395000</v>
       </c>
     </row>
-    <row r="489" spans="1:7">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>1704</v>
       </c>
@@ -11668,7 +11672,7 @@
         <v>1795000</v>
       </c>
     </row>
-    <row r="490" spans="1:7">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>1708</v>
       </c>
@@ -11691,7 +11695,7 @@
         <v>6195000</v>
       </c>
     </row>
-    <row r="491" spans="1:7">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>1714</v>
       </c>
@@ -11714,7 +11718,7 @@
         <v>1795000</v>
       </c>
     </row>
-    <row r="492" spans="1:7">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>1717</v>
       </c>
@@ -11737,7 +11741,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="493" spans="1:7">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>1721</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="494" spans="1:7">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>1724</v>
       </c>
@@ -11783,7 +11787,7 @@
         <v>3775000</v>
       </c>
     </row>
-    <row r="495" spans="1:7">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>1726</v>
       </c>
@@ -11806,7 +11810,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="496" spans="1:7">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>1727</v>
       </c>
@@ -11829,7 +11833,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="497" spans="1:7">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>1729</v>
       </c>
@@ -11852,7 +11856,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="498" spans="1:7">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>1732</v>
       </c>
@@ -11875,7 +11879,7 @@
         <v>1195000</v>
       </c>
     </row>
-    <row r="499" spans="1:7">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>1736</v>
       </c>
@@ -11898,7 +11902,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="500" spans="1:7">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>1737</v>
       </c>
@@ -11921,7 +11925,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="501" spans="1:7">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>1738</v>
       </c>
@@ -11944,7 +11948,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="502" spans="1:7">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>1740</v>
       </c>
@@ -11967,7 +11971,7 @@
         <v>10900000</v>
       </c>
     </row>
-    <row r="503" spans="1:7">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>1741</v>
       </c>
@@ -11990,7 +11994,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="504" spans="1:7">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>1742</v>
       </c>
@@ -12013,7 +12017,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="505" spans="1:7">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>1744</v>
       </c>
@@ -12036,7 +12040,7 @@
         <v>3795000</v>
       </c>
     </row>
-    <row r="506" spans="1:7">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>1746</v>
       </c>
@@ -12059,7 +12063,7 @@
         <v>1395000</v>
       </c>
     </row>
-    <row r="507" spans="1:7">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>1759</v>
       </c>
@@ -12082,7 +12086,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="508" spans="1:7">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>1764</v>
       </c>
@@ -12105,7 +12109,7 @@
         <v>6495000</v>
       </c>
     </row>
-    <row r="509" spans="1:7">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>1765</v>
       </c>
@@ -12128,7 +12132,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="510" spans="1:7">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>1766</v>
       </c>
@@ -12151,7 +12155,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="511" spans="1:7">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>1767</v>
       </c>
@@ -12174,7 +12178,7 @@
         <v>5495000</v>
       </c>
     </row>
-    <row r="512" spans="1:7">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>1768</v>
       </c>
@@ -12197,7 +12201,7 @@
         <v>4195000</v>
       </c>
     </row>
-    <row r="513" spans="1:7">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>1770</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="514" spans="1:7">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>1771</v>
       </c>
@@ -12243,7 +12247,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="515" spans="1:7">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>1778</v>
       </c>
@@ -12266,7 +12270,7 @@
         <v>4195000</v>
       </c>
     </row>
-    <row r="516" spans="1:7">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>1779</v>
       </c>
@@ -12289,7 +12293,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="517" spans="1:7">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>1781</v>
       </c>
@@ -12312,7 +12316,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="518" spans="1:7">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>1786</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="519" spans="1:7">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>1787</v>
       </c>
@@ -12358,7 +12362,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="520" spans="1:7">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>1793</v>
       </c>
@@ -12381,7 +12385,7 @@
         <v>1875000</v>
       </c>
     </row>
-    <row r="521" spans="1:7">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>1799</v>
       </c>
@@ -12404,7 +12408,7 @@
         <v>3475000</v>
       </c>
     </row>
-    <row r="522" spans="1:7">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>1801</v>
       </c>
@@ -12427,7 +12431,7 @@
         <v>4195000</v>
       </c>
     </row>
-    <row r="523" spans="1:7">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>1805</v>
       </c>
@@ -12450,7 +12454,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="524" spans="1:7">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>1807</v>
       </c>
@@ -12473,7 +12477,7 @@
         <v>7195000</v>
       </c>
     </row>
-    <row r="525" spans="1:7">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>1808</v>
       </c>
@@ -12496,7 +12500,7 @@
         <v>1895000</v>
       </c>
     </row>
-    <row r="526" spans="1:7">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>1809</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="527" spans="1:7">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>1810</v>
       </c>
@@ -12542,7 +12546,7 @@
         <v>1395000</v>
       </c>
     </row>
-    <row r="528" spans="1:7">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>1811</v>
       </c>
@@ -12565,7 +12569,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="529" spans="1:7">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>1814</v>
       </c>
@@ -12588,7 +12592,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="530" spans="1:7">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>1815</v>
       </c>
@@ -12611,7 +12615,7 @@
         <v>7695000</v>
       </c>
     </row>
-    <row r="531" spans="1:7">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>1816</v>
       </c>
@@ -12634,7 +12638,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="532" spans="1:7">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>1828</v>
       </c>
@@ -12657,7 +12661,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="533" spans="1:7">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>1834</v>
       </c>
@@ -12680,7 +12684,7 @@
         <v>5195000</v>
       </c>
     </row>
-    <row r="534" spans="1:7">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>1836</v>
       </c>
@@ -12703,7 +12707,7 @@
         <v>3395000</v>
       </c>
     </row>
-    <row r="535" spans="1:7">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>1837</v>
       </c>
@@ -12726,7 +12730,7 @@
         <v>4104646</v>
       </c>
     </row>
-    <row r="536" spans="1:7">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>1842</v>
       </c>
@@ -12749,7 +12753,7 @@
         <v>4395000</v>
       </c>
     </row>
-    <row r="537" spans="1:7">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>1843</v>
       </c>
@@ -12772,7 +12776,7 @@
         <v>7995000</v>
       </c>
     </row>
-    <row r="538" spans="1:7">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>1845</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="539" spans="1:7">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>1853</v>
       </c>
@@ -12818,7 +12822,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="540" spans="1:7">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>1854</v>
       </c>
@@ -12841,7 +12845,7 @@
         <v>4095000</v>
       </c>
     </row>
-    <row r="541" spans="1:7">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>1858</v>
       </c>
@@ -12864,7 +12868,7 @@
         <v>6495000</v>
       </c>
     </row>
-    <row r="542" spans="1:7">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>1859</v>
       </c>
@@ -12887,7 +12891,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="543" spans="1:7">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>1861</v>
       </c>
@@ -12910,7 +12914,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="544" spans="1:7">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>1863</v>
       </c>
@@ -12933,7 +12937,7 @@
         <v>6495000</v>
       </c>
     </row>
-    <row r="545" spans="1:7">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>1864</v>
       </c>
@@ -12956,7 +12960,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="546" spans="1:7">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>1869</v>
       </c>
@@ -12979,7 +12983,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="547" spans="1:7">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>1872</v>
       </c>
@@ -13002,7 +13006,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="548" spans="1:7">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>1875</v>
       </c>
@@ -13025,7 +13029,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="549" spans="1:7">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>1878</v>
       </c>
@@ -13048,7 +13052,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="550" spans="1:7">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>1883</v>
       </c>
@@ -13071,7 +13075,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="551" spans="1:7">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>1888</v>
       </c>
@@ -13094,7 +13098,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="552" spans="1:7">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>1896</v>
       </c>
@@ -13117,7 +13121,7 @@
         <v>6495000</v>
       </c>
     </row>
-    <row r="553" spans="1:7">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>1897</v>
       </c>
@@ -13140,7 +13144,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="554" spans="1:7">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>1900</v>
       </c>
@@ -13163,7 +13167,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="555" spans="1:7">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>1901</v>
       </c>
@@ -13186,7 +13190,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="556" spans="1:7">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>1902</v>
       </c>
@@ -13209,7 +13213,7 @@
         <v>1895000</v>
       </c>
     </row>
-    <row r="557" spans="1:7">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>1907</v>
       </c>
@@ -13232,7 +13236,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="558" spans="1:7">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>1908</v>
       </c>
@@ -13255,7 +13259,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="559" spans="1:7">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>1909</v>
       </c>
@@ -13278,7 +13282,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="560" spans="1:7">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>1910</v>
       </c>
@@ -13301,7 +13305,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="561" spans="1:7">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>1914</v>
       </c>
@@ -13324,7 +13328,7 @@
         <v>2095000</v>
       </c>
     </row>
-    <row r="562" spans="1:7">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>1918</v>
       </c>
@@ -13347,7 +13351,7 @@
         <v>2475000</v>
       </c>
     </row>
-    <row r="563" spans="1:7">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>1919</v>
       </c>
@@ -13370,7 +13374,7 @@
         <v>5195000</v>
       </c>
     </row>
-    <row r="564" spans="1:7">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>1923</v>
       </c>
@@ -13393,7 +13397,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="565" spans="1:7">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>1924</v>
       </c>
@@ -13416,7 +13420,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="566" spans="1:7">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>1926</v>
       </c>
@@ -13439,7 +13443,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="567" spans="1:7">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>1927</v>
       </c>
@@ -13462,7 +13466,7 @@
         <v>795000</v>
       </c>
     </row>
-    <row r="568" spans="1:7">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>1932</v>
       </c>
@@ -13485,7 +13489,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="569" spans="1:7">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>1933</v>
       </c>
@@ -13508,7 +13512,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="570" spans="1:7">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>1934</v>
       </c>
@@ -13531,7 +13535,7 @@
         <v>1695000</v>
       </c>
     </row>
-    <row r="571" spans="1:7">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>1935</v>
       </c>
@@ -13554,7 +13558,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="572" spans="1:7">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>1936</v>
       </c>
@@ -13577,7 +13581,7 @@
         <v>1495000</v>
       </c>
     </row>
-    <row r="573" spans="1:7">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>1939</v>
       </c>
@@ -13600,7 +13604,7 @@
         <v>15495000</v>
       </c>
     </row>
-    <row r="574" spans="1:7">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>1940</v>
       </c>
@@ -13623,7 +13627,7 @@
         <v>4795000</v>
       </c>
     </row>
-    <row r="575" spans="1:7">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>1943</v>
       </c>
@@ -13646,7 +13650,7 @@
         <v>4295000</v>
       </c>
     </row>
-    <row r="576" spans="1:7">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>1945</v>
       </c>
@@ -13669,7 +13673,7 @@
         <v>3895000</v>
       </c>
     </row>
-    <row r="577" spans="1:7">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>1949</v>
       </c>
@@ -13692,7 +13696,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="578" spans="1:7">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>1951</v>
       </c>
@@ -13715,7 +13719,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="579" spans="1:7">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>1953</v>
       </c>
@@ -13738,7 +13742,7 @@
         <v>4795000</v>
       </c>
     </row>
-    <row r="580" spans="1:7">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>1956</v>
       </c>
@@ -13761,7 +13765,7 @@
         <v>5295000</v>
       </c>
     </row>
-    <row r="581" spans="1:7">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>1958</v>
       </c>
@@ -13784,7 +13788,7 @@
         <v>7495000</v>
       </c>
     </row>
-    <row r="582" spans="1:7">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>1968</v>
       </c>
@@ -13807,7 +13811,7 @@
         <v>5495000</v>
       </c>
     </row>
-    <row r="583" spans="1:7">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>1971</v>
       </c>
@@ -13830,7 +13834,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="584" spans="1:7">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>1979</v>
       </c>
@@ -13853,7 +13857,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="585" spans="1:7">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>1982</v>
       </c>
@@ -13876,7 +13880,7 @@
         <v>10490000</v>
       </c>
     </row>
-    <row r="586" spans="1:7">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>1988</v>
       </c>
@@ -13899,7 +13903,7 @@
         <v>6495000</v>
       </c>
     </row>
-    <row r="587" spans="1:7">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>1991</v>
       </c>
@@ -13922,7 +13926,7 @@
         <v>6195000</v>
       </c>
     </row>
-    <row r="588" spans="1:7">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>1992</v>
       </c>
@@ -13945,7 +13949,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="589" spans="1:7">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>1994</v>
       </c>
@@ -13968,7 +13972,7 @@
         <v>5195000</v>
       </c>
     </row>
-    <row r="590" spans="1:7">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>1996</v>
       </c>
@@ -13991,7 +13995,7 @@
         <v>11950000</v>
       </c>
     </row>
-    <row r="591" spans="1:7">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>1997</v>
       </c>
@@ -14014,7 +14018,7 @@
         <v>3290000</v>
       </c>
     </row>
-    <row r="592" spans="1:7">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>2004</v>
       </c>
@@ -14037,7 +14041,7 @@
         <v>2095000</v>
       </c>
     </row>
-    <row r="593" spans="1:7">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>2005</v>
       </c>
@@ -14060,7 +14064,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="594" spans="1:7">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2009</v>
       </c>
@@ -14083,7 +14087,7 @@
         <v>4475000</v>
       </c>
     </row>
-    <row r="595" spans="1:7">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>2010</v>
       </c>
@@ -14106,7 +14110,7 @@
         <v>2595000</v>
       </c>
     </row>
-    <row r="596" spans="1:7">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>2017</v>
       </c>
@@ -14129,7 +14133,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="597" spans="1:7">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>2018</v>
       </c>
@@ -14152,7 +14156,7 @@
         <v>4745000</v>
       </c>
     </row>
-    <row r="598" spans="1:7">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>2024</v>
       </c>
@@ -14175,7 +14179,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="599" spans="1:7">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2028</v>
       </c>
@@ -14198,7 +14202,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="600" spans="1:7">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>2035</v>
       </c>
@@ -14221,7 +14225,7 @@
         <v>6995000</v>
       </c>
     </row>
-    <row r="601" spans="1:7">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2040</v>
       </c>
@@ -14244,7 +14248,7 @@
         <v>9995000</v>
       </c>
     </row>
-    <row r="602" spans="1:7">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2041</v>
       </c>
@@ -14267,7 +14271,7 @@
         <v>3295000</v>
       </c>
     </row>
-    <row r="603" spans="1:7">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2042</v>
       </c>
@@ -14290,7 +14294,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="604" spans="1:7">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2045</v>
       </c>
@@ -14313,7 +14317,7 @@
         <v>1495000</v>
       </c>
     </row>
-    <row r="605" spans="1:7">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2054</v>
       </c>
@@ -14336,7 +14340,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="606" spans="1:7">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2055</v>
       </c>
@@ -14359,7 +14363,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="607" spans="1:7">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2056</v>
       </c>
@@ -14382,7 +14386,7 @@
         <v>5975000</v>
       </c>
     </row>
-    <row r="608" spans="1:7">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2061</v>
       </c>
@@ -14405,7 +14409,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="609" spans="1:7">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2065</v>
       </c>
@@ -14428,7 +14432,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2067</v>
       </c>
@@ -14451,7 +14455,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="611" spans="1:7">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>2071</v>
       </c>
@@ -14474,7 +14478,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="612" spans="1:7">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>2073</v>
       </c>
@@ -14497,7 +14501,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="613" spans="1:7">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2080</v>
       </c>
@@ -14520,7 +14524,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="614" spans="1:7">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>2087</v>
       </c>
@@ -14543,7 +14547,7 @@
         <v>1495000</v>
       </c>
     </row>
-    <row r="615" spans="1:7">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>2088</v>
       </c>
@@ -14566,7 +14570,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="616" spans="1:7">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>2092</v>
       </c>
@@ -14589,7 +14593,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>2095</v>
       </c>
@@ -14612,7 +14616,7 @@
         <v>1695000</v>
       </c>
     </row>
-    <row r="618" spans="1:7">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>2097</v>
       </c>
@@ -14635,7 +14639,7 @@
         <v>2975000</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>2098</v>
       </c>
@@ -14658,7 +14662,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="620" spans="1:7">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2101</v>
       </c>
@@ -14681,7 +14685,7 @@
         <v>2875000</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>2104</v>
       </c>
@@ -14704,7 +14708,7 @@
         <v>7995000</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2105</v>
       </c>
@@ -14727,7 +14731,7 @@
         <v>1495000</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>2108</v>
       </c>
@@ -14750,7 +14754,7 @@
         <v>4395000</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>2113</v>
       </c>
@@ -14773,7 +14777,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="625" spans="1:7">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2115</v>
       </c>
@@ -14796,7 +14800,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="626" spans="1:7">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2117</v>
       </c>
@@ -14819,7 +14823,7 @@
         <v>1295000</v>
       </c>
     </row>
-    <row r="627" spans="1:7">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2118</v>
       </c>
@@ -14842,7 +14846,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="628" spans="1:7">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2122</v>
       </c>
@@ -14865,7 +14869,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="629" spans="1:7">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2126</v>
       </c>
@@ -14888,7 +14892,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="630" spans="1:7">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2128</v>
       </c>
@@ -14911,7 +14915,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="631" spans="1:7">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2135</v>
       </c>
@@ -14934,7 +14938,7 @@
         <v>1095000</v>
       </c>
     </row>
-    <row r="632" spans="1:7">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2137</v>
       </c>
@@ -14957,7 +14961,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="633" spans="1:7">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>2139</v>
       </c>
@@ -14980,7 +14984,7 @@
         <v>2495000</v>
       </c>
     </row>
-    <row r="634" spans="1:7">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>2141</v>
       </c>
@@ -15003,7 +15007,7 @@
         <v>10395000</v>
       </c>
     </row>
-    <row r="635" spans="1:7">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>2143</v>
       </c>
@@ -15026,7 +15030,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="636" spans="1:7">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>2151</v>
       </c>
@@ -15049,7 +15053,7 @@
         <v>2875000</v>
       </c>
     </row>
-    <row r="637" spans="1:7">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>2158</v>
       </c>
@@ -15072,7 +15076,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="638" spans="1:7">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>2160</v>
       </c>
@@ -15095,7 +15099,7 @@
         <v>4495000</v>
       </c>
     </row>
-    <row r="639" spans="1:7">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>2166</v>
       </c>
@@ -15118,7 +15122,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="640" spans="1:7">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>2168</v>
       </c>
@@ -15141,7 +15145,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="641" spans="1:7">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>2171</v>
       </c>
@@ -15164,7 +15168,7 @@
         <v>7595000</v>
       </c>
     </row>
-    <row r="642" spans="1:7">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2172</v>
       </c>
@@ -15187,7 +15191,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="643" spans="1:7">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>2173</v>
       </c>
@@ -15210,7 +15214,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="644" spans="1:7">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2174</v>
       </c>
@@ -15233,7 +15237,7 @@
         <v>3695000</v>
       </c>
     </row>
-    <row r="645" spans="1:7">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>2176</v>
       </c>
@@ -15256,7 +15260,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="646" spans="1:7">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>2179</v>
       </c>
@@ -15279,7 +15283,7 @@
         <v>1795000</v>
       </c>
     </row>
-    <row r="647" spans="1:7">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>2180</v>
       </c>
@@ -15302,7 +15306,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="648" spans="1:7">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>2182</v>
       </c>
@@ -15325,7 +15329,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="649" spans="1:7">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>2192</v>
       </c>
@@ -15348,7 +15352,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="650" spans="1:7">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2197</v>
       </c>
@@ -15371,7 +15375,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="651" spans="1:7">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2200</v>
       </c>
@@ -15394,7 +15398,7 @@
         <v>6975000</v>
       </c>
     </row>
-    <row r="652" spans="1:7">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>2201</v>
       </c>
@@ -15417,7 +15421,7 @@
         <v>2295000</v>
       </c>
     </row>
-    <row r="653" spans="1:7">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>2206</v>
       </c>
@@ -15440,7 +15444,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="654" spans="1:7">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2207</v>
       </c>
@@ -15463,7 +15467,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="655" spans="1:7">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>2208</v>
       </c>
@@ -15486,7 +15490,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="656" spans="1:7">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>2210</v>
       </c>
@@ -15509,7 +15513,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="657" spans="1:7">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>2214</v>
       </c>
@@ -15532,7 +15536,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="658" spans="1:7">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2215</v>
       </c>
@@ -15555,7 +15559,7 @@
         <v>4990000</v>
       </c>
     </row>
-    <row r="659" spans="1:7">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>2218</v>
       </c>
@@ -15578,7 +15582,7 @@
         <v>2395000</v>
       </c>
     </row>
-    <row r="660" spans="1:7">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>2219</v>
       </c>
@@ -15601,7 +15605,7 @@
         <v>1975000</v>
       </c>
     </row>
-    <row r="661" spans="1:7">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>2226</v>
       </c>
@@ -15624,7 +15628,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="662" spans="1:7">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>2228</v>
       </c>
@@ -15647,7 +15651,7 @@
         <v>8695000</v>
       </c>
     </row>
-    <row r="663" spans="1:7">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>2231</v>
       </c>
@@ -15670,7 +15674,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="664" spans="1:7">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>2240</v>
       </c>
@@ -15693,7 +15697,7 @@
         <v>2895000</v>
       </c>
     </row>
-    <row r="665" spans="1:7">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>2245</v>
       </c>
@@ -15716,7 +15720,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="666" spans="1:7">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>2246</v>
       </c>
@@ -15739,7 +15743,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="667" spans="1:7">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>2253</v>
       </c>
@@ -15762,7 +15766,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="668" spans="1:7">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>2260</v>
       </c>
@@ -15785,7 +15789,7 @@
         <v>1945000</v>
       </c>
     </row>
-    <row r="669" spans="1:7">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>2263</v>
       </c>
@@ -15808,7 +15812,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="670" spans="1:7">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>2274</v>
       </c>
@@ -15831,7 +15835,7 @@
         <v>7995000</v>
       </c>
     </row>
-    <row r="671" spans="1:7">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>2277</v>
       </c>
@@ -15854,7 +15858,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="672" spans="1:7">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>2279</v>
       </c>
@@ -15877,7 +15881,7 @@
         <v>3095000</v>
       </c>
     </row>
-    <row r="673" spans="1:7">
+    <row r="673" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>2280</v>
       </c>
@@ -15900,7 +15904,7 @@
         <v>2195000</v>
       </c>
     </row>
-    <row r="674" spans="1:7">
+    <row r="674" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>2281</v>
       </c>
@@ -15923,7 +15927,7 @@
         <v>3495000</v>
       </c>
     </row>
-    <row r="675" spans="1:7">
+    <row r="675" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>2282</v>
       </c>
@@ -15946,7 +15950,7 @@
         <v>10595000</v>
       </c>
     </row>
-    <row r="676" spans="1:7">
+    <row r="676" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>2283</v>
       </c>
@@ -15969,7 +15973,7 @@
         <v>3395000</v>
       </c>
     </row>
-    <row r="677" spans="1:7">
+    <row r="677" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>2289</v>
       </c>
@@ -15992,7 +15996,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="678" spans="1:7">
+    <row r="678" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>2290</v>
       </c>
@@ -16015,7 +16019,7 @@
         <v>7795000</v>
       </c>
     </row>
-    <row r="679" spans="1:7">
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>2291</v>
       </c>
@@ -16038,7 +16042,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="680" spans="1:7">
+    <row r="680" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>2295</v>
       </c>
@@ -16061,7 +16065,7 @@
         <v>3295000</v>
       </c>
     </row>
-    <row r="681" spans="1:7">
+    <row r="681" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>2298</v>
       </c>
@@ -16084,7 +16088,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="682" spans="1:7">
+    <row r="682" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>2301</v>
       </c>
@@ -16107,7 +16111,7 @@
         <v>4445000</v>
       </c>
     </row>
-    <row r="683" spans="1:7">
+    <row r="683" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>2305</v>
       </c>
@@ -16130,7 +16134,7 @@
         <v>3995000</v>
       </c>
     </row>
-    <row r="684" spans="1:7">
+    <row r="684" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>2306</v>
       </c>
@@ -16153,7 +16157,7 @@
         <v>3195000</v>
       </c>
     </row>
-    <row r="685" spans="1:7">
+    <row r="685" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>2308</v>
       </c>
@@ -16176,7 +16180,7 @@
         <v>1495000</v>
       </c>
     </row>
-    <row r="686" spans="1:7">
+    <row r="686" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>2309</v>
       </c>
@@ -16199,7 +16203,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="687" spans="1:7">
+    <row r="687" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>2311</v>
       </c>
@@ -16222,7 +16226,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="688" spans="1:7">
+    <row r="688" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>2313</v>
       </c>
@@ -16245,7 +16249,7 @@
         <v>2795000</v>
       </c>
     </row>
-    <row r="689" spans="1:7">
+    <row r="689" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>2314</v>
       </c>
@@ -16268,7 +16272,7 @@
         <v>6995000</v>
       </c>
     </row>
-    <row r="690" spans="1:7">
+    <row r="690" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>2320</v>
       </c>
@@ -16291,7 +16295,7 @@
         <v>4890000</v>
       </c>
     </row>
-    <row r="691" spans="1:7">
+    <row r="691" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>2323</v>
       </c>
@@ -16314,7 +16318,7 @@
         <v>4795000</v>
       </c>
     </row>
-    <row r="692" spans="1:7">
+    <row r="692" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>2326</v>
       </c>
@@ -16337,7 +16341,7 @@
         <v>5995000</v>
       </c>
     </row>
-    <row r="693" spans="1:7">
+    <row r="693" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>2327</v>
       </c>
@@ -16360,7 +16364,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="694" spans="1:7">
+    <row r="694" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>2329</v>
       </c>
@@ -16383,7 +16387,7 @@
         <v>2695000</v>
       </c>
     </row>
-    <row r="695" spans="1:7">
+    <row r="695" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>2331</v>
       </c>
@@ -16406,7 +16410,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="696" spans="1:7">
+    <row r="696" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>2334</v>
       </c>
@@ -16429,7 +16433,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="697" spans="1:7">
+    <row r="697" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>2339</v>
       </c>
@@ -16452,7 +16456,7 @@
         <v>1995000</v>
       </c>
     </row>
-    <row r="698" spans="1:7">
+    <row r="698" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>2343</v>
       </c>
@@ -16475,7 +16479,7 @@
         <v>1490000</v>
       </c>
     </row>
-    <row r="699" spans="1:7">
+    <row r="699" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>2353</v>
       </c>
@@ -16498,7 +16502,7 @@
         <v>3295000</v>
       </c>
     </row>
-    <row r="700" spans="1:7">
+    <row r="700" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>2358</v>
       </c>
@@ -16521,7 +16525,7 @@
         <v>4995000</v>
       </c>
     </row>
-    <row r="701" spans="1:7">
+    <row r="701" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>2366</v>
       </c>
@@ -16544,7 +16548,7 @@
         <v>2995000</v>
       </c>
     </row>
-    <row r="702" spans="1:7">
+    <row r="702" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>2367</v>
       </c>
